--- a/material/output.xlsx
+++ b/material/output.xlsx
@@ -14,45 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Datum:</t>
   </si>
   <si>
-    <t>19.01.2023</t>
-  </si>
-  <si>
-    <t>Kasten 1</t>
-  </si>
-  <si>
-    <t>Schutzoverall</t>
-  </si>
-  <si>
-    <t>Sterillium classic 1L</t>
-  </si>
-  <si>
-    <t>Wettask Tücher</t>
-  </si>
-  <si>
-    <t>Zetuvid 10cmx20cm</t>
-  </si>
-  <si>
-    <t>ES-Kompressen 10cmx10cm</t>
-  </si>
-  <si>
-    <t>Kasten 2</t>
-  </si>
-  <si>
-    <t>chirurgischer Mund-Nasen-Schutz</t>
-  </si>
-  <si>
-    <t>Kontamed-Box groß</t>
-  </si>
-  <si>
-    <t>Rettungstuch</t>
-  </si>
-  <si>
-    <t>Kasten 4</t>
+    <t>28.01.2023</t>
   </si>
 </sst>
 </file>
@@ -384,13 +351,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -398,93 +365,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/material/output.xlsx
+++ b/material/output.xlsx
@@ -14,12 +14,135 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>Datum:</t>
   </si>
   <si>
-    <t>28.01.2023</t>
+    <t>30.01.2023</t>
+  </si>
+  <si>
+    <t>Kasten 1</t>
+  </si>
+  <si>
+    <t>Schutzoverall</t>
+  </si>
+  <si>
+    <t>FFP2-Masken</t>
+  </si>
+  <si>
+    <t>Mikrozid 1L</t>
+  </si>
+  <si>
+    <t>Wettask-Tücher (Nachfüllrollen)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dreieckstücher </t>
+  </si>
+  <si>
+    <t>Zetuvid 10cmx20cm</t>
+  </si>
+  <si>
+    <t>Omnifilm</t>
+  </si>
+  <si>
+    <t>ES-Kompressen 5cmx5cm</t>
+  </si>
+  <si>
+    <t>Cosmopor 10cmx8cm</t>
+  </si>
+  <si>
+    <t>Peha-haft 10cmx4cm</t>
+  </si>
+  <si>
+    <t>Einmalhandschuhe Gr. M</t>
+  </si>
+  <si>
+    <t>Einmalhandschuhe Gr. L</t>
+  </si>
+  <si>
+    <t>SamSplint</t>
+  </si>
+  <si>
+    <t>Beatmungsfilter</t>
+  </si>
+  <si>
+    <t>O2-Maske</t>
+  </si>
+  <si>
+    <t>O2-Verbindungsschlauch</t>
+  </si>
+  <si>
+    <t>Spritze Larynxtubus groß</t>
+  </si>
+  <si>
+    <t>Absaugbeutel</t>
+  </si>
+  <si>
+    <t>Absaugschlauch</t>
+  </si>
+  <si>
+    <t>EKG-Elektroden</t>
+  </si>
+  <si>
+    <t>EKG-Papier</t>
+  </si>
+  <si>
+    <t>Venflon grau</t>
+  </si>
+  <si>
+    <t>Venflon grün</t>
+  </si>
+  <si>
+    <t>Venflon blau</t>
+  </si>
+  <si>
+    <t>Venflon rosa</t>
+  </si>
+  <si>
+    <t>Venflon weiß</t>
+  </si>
+  <si>
+    <t>Teststreifen Accu-Chek Performa</t>
+  </si>
+  <si>
+    <t>Kasten 2</t>
+  </si>
+  <si>
+    <t>Kontamed‘chen</t>
+  </si>
+  <si>
+    <t>StifNek</t>
+  </si>
+  <si>
+    <t>Fußschiene vakuum</t>
+  </si>
+  <si>
+    <t>Armschiene vakuum</t>
+  </si>
+  <si>
+    <t>Kasten 3</t>
+  </si>
+  <si>
+    <t>Kanülenfixierpflaster Kinder</t>
+  </si>
+  <si>
+    <t>Bakterienfilter</t>
+  </si>
+  <si>
+    <t>Absaugkatheter grün (4,67mm)</t>
+  </si>
+  <si>
+    <t>Absaugkatheter schwarz (3,33mm)</t>
+  </si>
+  <si>
+    <t>Kasten 4</t>
+  </si>
+  <si>
+    <t>Kühlkompressen</t>
+  </si>
+  <si>
+    <t>Rettungsdecken</t>
   </si>
 </sst>
 </file>
@@ -351,18 +474,358 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="B41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="B42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="B44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="B45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
